--- a/spliced/falling/2023-03-25_18-04-18/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-04-18/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>-0.0968221426010131</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.0076358155347406</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.2938261926174164</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.2556470930576324</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_18-04-18/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-04-18/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0073303831741213</v>
+        <v>0.0226020142436027</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0361937656998634</v>
+        <v>0.0108428578823804</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0346666015684604</v>
+        <v>0.0673478916287422</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00335975876078</v>
+        <v>-0.06688974797725671</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1609629988670349</v>
+        <v>0.0363464802503585</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08643743395805351</v>
+        <v>0.0458148941397666</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.08429940044879911</v>
+        <v>-0.0578794814646244</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1406517177820205</v>
+        <v>-0.0059559359215199</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2235766798257827</v>
+        <v>-0.026419922709465</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.4598288238048553</v>
+        <v>-0.0319177098572254</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2849686443805694</v>
+        <v>0.0326812900602817</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0438295826315879</v>
+        <v>0.0067195175215601</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.0018325957935303</v>
+        <v>-0.0120645882561802</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4227187633514404</v>
+        <v>-0.0032070425804704</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1143845170736312</v>
+        <v>0.0010690141934901</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0514653958380222</v>
+        <v>0.00534507073462</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7043276429176331</v>
+        <v>-0.0042760567739605</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5734497308731079</v>
+        <v>0.0001527163112768</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.2469422817230224</v>
+        <v>0.0019853119738399</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.195616006851196</v>
+        <v>-0.0022907445672899</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.284649610519409</v>
+        <v>0.0009162978967650999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1327104717493057</v>
+        <v>0.009010262787342</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.82404363155365</v>
+        <v>-0.0284052342176437</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.386511445045471</v>
+        <v>-0.0154243474826216</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.465160250663757</v>
+        <v>0.027030786499381</v>
       </c>
       <c r="B10" t="n">
-        <v>4.381736278533936</v>
+        <v>0.0221438650041818</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.054465293884277</v>
+        <v>-0.0340557359158992</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.828611612319946</v>
+        <v>0.1010981947183609</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6840163469314575</v>
+        <v>-0.0036651915870606</v>
       </c>
       <c r="C11" t="n">
-        <v>1.775785326957703</v>
+        <v>-0.0352774672210216</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.8000807762145996</v>
+        <v>-0.0256563406437635</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6334672570228577</v>
+        <v>0.0059559359215199</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.410640597343445</v>
+        <v>-0.0114537235349416</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.380110889673233</v>
+        <v>-0.0073303831741213</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3691153228282928</v>
+        <v>-0.0361937656998634</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4048509299755096</v>
+        <v>-0.0346666015684604</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.2186897546052932</v>
+        <v>-0.00335975876078</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1003346145153045</v>
+        <v>-0.1609629988670349</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2921462953090668</v>
+        <v>0.08643743395805351</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.1091921627521514</v>
+        <v>0.08429940044879911</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.4050036668777466</v>
+        <v>0.1406517177820205</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2264782935380935</v>
+        <v>-0.2235766798257827</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.4273002445697784</v>
+        <v>0.4598288238048553</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8710938692092896</v>
+        <v>0.2849686443805694</v>
       </c>
       <c r="C16" t="n">
-        <v>0.479834645986557</v>
+        <v>-0.0438295826315879</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.0183259565383195</v>
+        <v>-0.0018325957935303</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1708895564079284</v>
+        <v>0.4227187633514404</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3941608071327209</v>
+        <v>-0.1143845170736312</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.4156937897205353</v>
+        <v>0.0514653958380222</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.4030183553695678</v>
+        <v>0.7043276429176331</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1386664062738418</v>
+        <v>-0.5734497308731079</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.2107485085725784</v>
+        <v>0.2469422817230224</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.07910704612731929</v>
+        <v>-1.195616006851196</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06582073122262951</v>
+        <v>-1.284649610519409</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.2503020465373993</v>
+        <v>0.1327104717493057</v>
       </c>
       <c r="B20" t="n">
-        <v>0.09987647086381909</v>
+        <v>-1.82404363155365</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2165517359972</v>
+        <v>-1.386511445045471</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.1038470938801765</v>
+        <v>-1.465160250663757</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0503963828086853</v>
+        <v>4.381736278533936</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0968221426010131</v>
+        <v>-4.054465293884277</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2.828611612319946</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6840163469314575</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.775785326957703</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.8000807762145996</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.6334672570228577</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.410640597343445</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.380110889673233</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.3691153228282928</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.4048509299755096</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.2186897546052932</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.1003346145153045</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.2921462953090668</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.1091921627521514</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.4050036668777466</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.2264782935380935</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.4273002445697784</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8710938692092896</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.479834645986557</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.0183259565383195</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1708895564079284</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.3941608071327209</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.4156937897205353</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.4030183553695678</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.1386664062738418</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.2107485085725784</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.07910704612731929</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.06582073122262951</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.2503020465373993</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.09987647086381909</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.2165517359972</v>
       </c>
     </row>
   </sheetData>
